--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999726444774487</v>
+        <v>0.9424440565802336</v>
       </c>
       <c r="E2">
-        <v>0.9999726444774487</v>
+        <v>0.9424440565802336</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9825427057318303</v>
+        <v>0.8973800435544202</v>
       </c>
       <c r="E3">
-        <v>0.9825427057318303</v>
+        <v>0.8973800435544202</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.694778494227001E-08</v>
+        <v>2.008768748498127E-08</v>
       </c>
       <c r="E4">
-        <v>4.694778494227001E-08</v>
+        <v>2.008768748498127E-08</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.945960609793619E-21</v>
+        <v>1.352348203486892E-20</v>
       </c>
       <c r="E5">
-        <v>3.945960609793619E-21</v>
+        <v>1.352348203486892E-20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9997127977043382</v>
+        <v>0.4923919708852646</v>
       </c>
       <c r="E6">
-        <v>0.9997127977043382</v>
+        <v>0.4923919708852646</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999996174607</v>
+        <v>0.9999999999154365</v>
       </c>
       <c r="E7">
-        <v>3.825393335432636E-10</v>
+        <v>8.456346733964892E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999991029010408</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="E8">
-        <v>8.970989592294032E-07</v>
+        <v>5.151434834260726E-14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999979711558</v>
+        <v>0.9999999999998366</v>
       </c>
       <c r="E9">
-        <v>2.028844203749713E-09</v>
+        <v>1.63424829224823E-13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3.687552615267596E-06</v>
+        <v>0.9999999997253972</v>
       </c>
       <c r="E11">
-        <v>0.9999963124473847</v>
+        <v>2.746027849553911E-10</v>
       </c>
       <c r="F11">
-        <v>3.522046327590942</v>
+        <v>0.5809767842292786</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
